--- a/JDSZ2RAN-6/jdsz2ran-6_1_analiza-wizualizacja.xlsx
+++ b/JDSZ2RAN-6/jdsz2ran-6_1_analiza-wizualizacja.xlsx
@@ -1,86 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bartek/PycharmProjects/airhelp/Projekt_SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604B9E4-48D8-B34E-AA98-812022654760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E3B79-B783-5141-836F-73C2BA3A3C54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="7440" windowWidth="26680" windowHeight="16120" activeTab="1" xr2:uid="{180B6E06-E557-1E44-B294-A9F6AEC57A42}"/>
+    <workbookView xWindow="23480" yWindow="3180" windowWidth="26680" windowHeight="17720" activeTab="5" xr2:uid="{180B6E06-E557-1E44-B294-A9F6AEC57A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Import z CSV - dni tygodnia" sheetId="4" r:id="rId1"/>
     <sheet name="Dni tygodnia" sheetId="3" r:id="rId2"/>
+    <sheet name="Import z CSV - miesiące" sheetId="5" r:id="rId3"/>
+    <sheet name="Miesiące" sheetId="6" r:id="rId4"/>
+    <sheet name="Import z CSV - kwartały" sheetId="7" r:id="rId5"/>
+    <sheet name="Kwartały" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Dni tygodnia'!$G$3:$G$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Dni tygodnia'!$I$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Dni tygodnia'!$I$3:$I$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Dni tygodnia'!$J$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Dni tygodnia'!$J$3:$J$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Dni tygodnia'!$A$3:$A$9</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Dni tygodnia'!$B$2</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Dni tygodnia'!$B$3:$B$9</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Dni tygodnia'!$C$2</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Dni tygodnia'!$C$3:$C$9</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Dni tygodnia'!$D$2</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Dni tygodnia'!$D$3:$D$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Dni tygodnia'!$E$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Dni tygodnia'!$E$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Dni tygodnia'!$G$1</definedName>
     <definedName name="jdsz2ran_6_1_analiza_wg_dni_tygodnia" localSheetId="1">'Dni tygodnia'!$A$2:$E$9</definedName>
     <definedName name="jdsz2ran_6_1_analiza_wg_dni_tygodnia" localSheetId="0">'Import z CSV - dni tygodnia'!$A$1:$H$8</definedName>
+    <definedName name="jdsz2ran_6_2_analiza_wg_miesiecy_lata" localSheetId="2">'Import z CSV - miesiące'!$A$1:$H$13</definedName>
+    <definedName name="jdsz2ran_6_3_analiza_wg_kwartalow" localSheetId="4">'Import z CSV - kwartały'!$A$1:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,11 +59,39 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{D5723180-27D2-7449-88FF-08356E34DF79}" name="jdsz2ran-6_2_analiza-wg-miesiecy-lata" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/bartek/PycharmProjects/airhelp/Projekt_SQL/jdsz2ran-6_2_analiza-wg-miesiecy-lata.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{9C3E3B2F-02D9-3142-97A2-F0D7530C4F43}" name="jdsz2ran-6_3_analiza-wg-kwartalow" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/bartek/PycharmProjects/airhelp/Projekt_SQL/jdsz2ran-6_3_analiza-wg-kwartalow.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>rok_2014</t>
   </si>
@@ -184,6 +158,54 @@
   <si>
     <t>Średnia + odch. std.</t>
   </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>lipiec</t>
+  </si>
+  <si>
+    <t>sierpień</t>
+  </si>
+  <si>
+    <t>wrzesień</t>
+  </si>
+  <si>
+    <t>październik</t>
+  </si>
+  <si>
+    <t>listopad</t>
+  </si>
+  <si>
+    <t>grudzień</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>Miesiąc</t>
+  </si>
+  <si>
+    <t>Kwartał</t>
+  </si>
 </sst>
 </file>
 
@@ -227,20 +249,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,6 +1443,2428 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7645-EC47-A0CF-ED15302E5410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7645-EC47-A0CF-ED15302E5410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7645-EC47-A0CF-ED15302E5410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7645-EC47-A0CF-ED15302E5410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="519155536"/>
+        <c:axId val="544732176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519155536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544732176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544732176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519155536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27A2-524E-9B91-67CCEEF9D85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27A2-524E-9B91-67CCEEF9D85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27A2-524E-9B91-67CCEEF9D85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Miesiące!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Miesiące!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>styczeń</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>luty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzec</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>maj</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>lipiec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sierpień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>październik</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>listopad</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>grudzień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Miesiące!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11422</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27A2-524E-9B91-67CCEEF9D85B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="519155536"/>
+        <c:axId val="544732176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519155536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544732176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544732176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519155536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1B6-A840-846F-70B1D26F9785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1B6-A840-846F-70B1D26F9785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1B6-A840-846F-70B1D26F9785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1B6-A840-846F-70B1D26F9785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="519155536"/>
+        <c:axId val="544732176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519155536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544732176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544732176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519155536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C85-D141-9DF1-18E074B1A1D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C85-D141-9DF1-18E074B1A1D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C85-D141-9DF1-18E074B1A1D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kwartały!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kwartały!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kwartały!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C85-D141-9DF1-18E074B1A1D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="519155536"/>
+        <c:axId val="544732176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="519155536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544732176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544732176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519155536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1498,6 +3945,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2497,6 +5104,2012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2580,12 +7193,182 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB8FB5-3898-354E-9961-5CF4755B90DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31A43B4-BD59-6242-987C-3F8D66DC79DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E842454-1F4A-6B46-B886-D3ADC438B464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD23482B-DCF7-B446-BF71-604FB71B7B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="jdsz2ran-6_1_analiza-wg-dni-tygodnia" connectionId="2" xr16:uid="{696B0E30-61E9-3943-AD78-2CBF3940D2B2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="jdsz2ran-6_1_analiza-wg-dni-tygodnia" connectionId="1" xr16:uid="{BB123E7A-39B8-6241-9849-52F0F3E8D09A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="jdsz2ran-6_2_analiza-wg-miesiecy-lata" connectionId="3" xr16:uid="{33D0E612-B693-9140-B626-E2BA8E47808A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="jdsz2ran-6_3_analiza-wg-kwartalow" connectionId="4" xr16:uid="{1DFCC3AA-9435-A04C-878C-9A36CCF25883}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2888,7 +7671,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3117,8 +7900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA2F23-DE82-F64E-A045-AB4661B10D61}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3131,66 +7914,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2">
         <v>2014</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>2015</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2016</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>2017</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <f t="array" ref="B3:H9">'Import z CSV - dni tygodnia'!B2:H8</f>
         <v>1764</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1941</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>470</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>202</v>
       </c>
       <c r="F3">
@@ -3199,14 +7982,14 @@
       <c r="G3">
         <v>23310</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>12255</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <f>G3-H3</f>
         <v>11055</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <f>G3+H3</f>
         <v>35565</v>
       </c>
@@ -3215,16 +7998,16 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>2831</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>4481</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>4430</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>19773</v>
       </c>
       <c r="F4">
@@ -3233,14 +8016,14 @@
       <c r="G4">
         <v>23310</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>12255</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <f t="shared" ref="I4:I9" si="0">G4-H4</f>
         <v>11055</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J9" si="1">G4+H4</f>
         <v>35565</v>
       </c>
@@ -3249,16 +8032,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2728</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>4951</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4973</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>17693</v>
       </c>
       <c r="F5">
@@ -3267,14 +8050,14 @@
       <c r="G5">
         <v>23310</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>12255</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>11055</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>35565</v>
       </c>
@@ -3283,16 +8066,16 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>2674</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>4115</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>4701</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>18836</v>
       </c>
       <c r="F6">
@@ -3301,14 +8084,14 @@
       <c r="G6">
         <v>23310</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>12255</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>11055</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>35565</v>
       </c>
@@ -3317,16 +8100,16 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>2645</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5356</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>4697</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>21273</v>
       </c>
       <c r="F7">
@@ -3335,14 +8118,14 @@
       <c r="G7">
         <v>23310</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>12255</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>11055</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>35565</v>
       </c>
@@ -3351,16 +8134,16 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>2343</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3011</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4585</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>18940</v>
       </c>
       <c r="F8">
@@ -3369,14 +8152,14 @@
       <c r="G8">
         <v>23310</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>12255</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>11055</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>35565</v>
       </c>
@@ -3385,16 +8168,16 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1474</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>1634</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>512</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>140</v>
       </c>
       <c r="F9">
@@ -3403,14 +8186,14 @@
       <c r="G9">
         <v>23310</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>12255</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>11055</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>35565</v>
       </c>
@@ -3428,4 +8211,1319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CFA831-5103-6B47-8406-33DBDC23214F}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>388</v>
+      </c>
+      <c r="C2">
+        <v>2746</v>
+      </c>
+      <c r="D2">
+        <v>1126</v>
+      </c>
+      <c r="E2">
+        <v>4670</v>
+      </c>
+      <c r="F2">
+        <v>8930</v>
+      </c>
+      <c r="G2">
+        <v>13598</v>
+      </c>
+      <c r="H2">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>623</v>
+      </c>
+      <c r="C3">
+        <v>2052</v>
+      </c>
+      <c r="D3">
+        <v>1569</v>
+      </c>
+      <c r="E3">
+        <v>5126</v>
+      </c>
+      <c r="F3">
+        <v>9370</v>
+      </c>
+      <c r="G3">
+        <v>13598</v>
+      </c>
+      <c r="H3">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1314</v>
+      </c>
+      <c r="C4">
+        <v>1085</v>
+      </c>
+      <c r="D4">
+        <v>1055</v>
+      </c>
+      <c r="E4">
+        <v>6969</v>
+      </c>
+      <c r="F4">
+        <v>10423</v>
+      </c>
+      <c r="G4">
+        <v>13598</v>
+      </c>
+      <c r="H4">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1060</v>
+      </c>
+      <c r="C5">
+        <v>1151</v>
+      </c>
+      <c r="D5">
+        <v>984</v>
+      </c>
+      <c r="E5">
+        <v>5758</v>
+      </c>
+      <c r="F5">
+        <v>8953</v>
+      </c>
+      <c r="G5">
+        <v>13598</v>
+      </c>
+      <c r="H5">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1539</v>
+      </c>
+      <c r="C6">
+        <v>1108</v>
+      </c>
+      <c r="D6">
+        <v>1412</v>
+      </c>
+      <c r="E6">
+        <v>6594</v>
+      </c>
+      <c r="F6">
+        <v>10653</v>
+      </c>
+      <c r="G6">
+        <v>13598</v>
+      </c>
+      <c r="H6">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1267</v>
+      </c>
+      <c r="C7">
+        <v>1340</v>
+      </c>
+      <c r="D7">
+        <v>1451</v>
+      </c>
+      <c r="E7">
+        <v>9849</v>
+      </c>
+      <c r="F7">
+        <v>13907</v>
+      </c>
+      <c r="G7">
+        <v>13598</v>
+      </c>
+      <c r="H7">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2229</v>
+      </c>
+      <c r="C8">
+        <v>2839</v>
+      </c>
+      <c r="D8">
+        <v>1664</v>
+      </c>
+      <c r="E8">
+        <v>11135</v>
+      </c>
+      <c r="F8">
+        <v>17867</v>
+      </c>
+      <c r="G8">
+        <v>13598</v>
+      </c>
+      <c r="H8">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2133</v>
+      </c>
+      <c r="C9">
+        <v>2712</v>
+      </c>
+      <c r="D9">
+        <v>1975</v>
+      </c>
+      <c r="E9">
+        <v>9416</v>
+      </c>
+      <c r="F9">
+        <v>16236</v>
+      </c>
+      <c r="G9">
+        <v>13598</v>
+      </c>
+      <c r="H9">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1950</v>
+      </c>
+      <c r="C10">
+        <v>3701</v>
+      </c>
+      <c r="D10">
+        <v>2654</v>
+      </c>
+      <c r="E10">
+        <v>9534</v>
+      </c>
+      <c r="F10">
+        <v>17839</v>
+      </c>
+      <c r="G10">
+        <v>13598</v>
+      </c>
+      <c r="H10">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1436</v>
+      </c>
+      <c r="C11">
+        <v>3099</v>
+      </c>
+      <c r="D11">
+        <v>3141</v>
+      </c>
+      <c r="E11">
+        <v>8784</v>
+      </c>
+      <c r="F11">
+        <v>16460</v>
+      </c>
+      <c r="G11">
+        <v>13598</v>
+      </c>
+      <c r="H11">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1164</v>
+      </c>
+      <c r="C12">
+        <v>3257</v>
+      </c>
+      <c r="D12">
+        <v>3164</v>
+      </c>
+      <c r="E12">
+        <v>11422</v>
+      </c>
+      <c r="F12">
+        <v>19007</v>
+      </c>
+      <c r="G12">
+        <v>13598</v>
+      </c>
+      <c r="H12">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1356</v>
+      </c>
+      <c r="C13">
+        <v>399</v>
+      </c>
+      <c r="D13">
+        <v>4173</v>
+      </c>
+      <c r="E13">
+        <v>7600</v>
+      </c>
+      <c r="F13">
+        <v>13528</v>
+      </c>
+      <c r="G13">
+        <v>13598</v>
+      </c>
+      <c r="H13">
+        <v>3660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E4BDA-A2B0-574F-AFEF-F1C9BC36DC35}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="array" ref="B3">'Import z CSV - miesiące'!B2:H13</f>
+        <v>388</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="array" ref="C3">'Import z CSV - miesiące'!C2:I13</f>
+        <v>2746</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="array" ref="D3">'Import z CSV - miesiące'!D2:J13</f>
+        <v>1126</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="array" ref="E3">'Import z CSV - miesiące'!E2:K13</f>
+        <v>4670</v>
+      </c>
+      <c r="F3">
+        <f t="array" ref="F3">'Import z CSV - miesiące'!F2:L13</f>
+        <v>8930</v>
+      </c>
+      <c r="G3">
+        <f t="array" ref="G3">'Import z CSV - miesiące'!G2:M13</f>
+        <v>13598</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="array" ref="H3">'Import z CSV - miesiące'!H2:N13</f>
+        <v>3660</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I14" si="0">G3-H3</f>
+        <v>9938</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J14" si="1">G3+H3</f>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="array" ref="B4">'Import z CSV - miesiące'!B3:H14</f>
+        <v>623</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="array" ref="C4">'Import z CSV - miesiące'!C3:I14</f>
+        <v>2052</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="array" ref="D4">'Import z CSV - miesiące'!D3:J14</f>
+        <v>1569</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="array" ref="E4">'Import z CSV - miesiące'!E3:K14</f>
+        <v>5126</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">'Import z CSV - miesiące'!F3:L14</f>
+        <v>9370</v>
+      </c>
+      <c r="G4">
+        <f t="array" ref="G4">'Import z CSV - miesiące'!G3:M14</f>
+        <v>13598</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="array" ref="H4">'Import z CSV - miesiące'!H3:N14</f>
+        <v>3660</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="array" ref="B5">'Import z CSV - miesiące'!B4:H15</f>
+        <v>1314</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="array" ref="C5">'Import z CSV - miesiące'!C4:I15</f>
+        <v>1085</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="array" ref="D5">'Import z CSV - miesiące'!D4:J15</f>
+        <v>1055</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="array" ref="E5">'Import z CSV - miesiące'!E4:K15</f>
+        <v>6969</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">'Import z CSV - miesiące'!F4:L15</f>
+        <v>10423</v>
+      </c>
+      <c r="G5">
+        <f t="array" ref="G5">'Import z CSV - miesiące'!G4:M15</f>
+        <v>13598</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">'Import z CSV - miesiące'!H4:N15</f>
+        <v>3660</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="array" ref="B6">'Import z CSV - miesiące'!B5:H16</f>
+        <v>1060</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="array" ref="C6">'Import z CSV - miesiące'!C5:I16</f>
+        <v>1151</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="array" ref="D6">'Import z CSV - miesiące'!D5:J16</f>
+        <v>984</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6">'Import z CSV - miesiące'!E5:K16</f>
+        <v>5758</v>
+      </c>
+      <c r="F6">
+        <f t="array" ref="F6">'Import z CSV - miesiące'!F5:L16</f>
+        <v>8953</v>
+      </c>
+      <c r="G6">
+        <f t="array" ref="G6">'Import z CSV - miesiące'!G5:M16</f>
+        <v>13598</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">'Import z CSV - miesiące'!H5:N16</f>
+        <v>3660</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="array" ref="B7">'Import z CSV - miesiące'!B6:H17</f>
+        <v>1539</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="array" ref="C7">'Import z CSV - miesiące'!C6:I17</f>
+        <v>1108</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="array" ref="D7">'Import z CSV - miesiące'!D6:J17</f>
+        <v>1412</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="array" ref="E7">'Import z CSV - miesiące'!E6:K17</f>
+        <v>6594</v>
+      </c>
+      <c r="F7">
+        <f t="array" ref="F7">'Import z CSV - miesiące'!F6:L17</f>
+        <v>10653</v>
+      </c>
+      <c r="G7">
+        <f t="array" ref="G7">'Import z CSV - miesiące'!G6:M17</f>
+        <v>13598</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="array" ref="H7">'Import z CSV - miesiące'!H6:N17</f>
+        <v>3660</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="array" ref="B8">'Import z CSV - miesiące'!B7:H18</f>
+        <v>1267</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="array" ref="C8">'Import z CSV - miesiące'!C7:I18</f>
+        <v>1340</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="array" ref="D8">'Import z CSV - miesiące'!D7:J18</f>
+        <v>1451</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="array" ref="E8">'Import z CSV - miesiące'!E7:K18</f>
+        <v>9849</v>
+      </c>
+      <c r="F8">
+        <f t="array" ref="F8">'Import z CSV - miesiące'!F7:L18</f>
+        <v>13907</v>
+      </c>
+      <c r="G8">
+        <f t="array" ref="G8">'Import z CSV - miesiące'!G7:M18</f>
+        <v>13598</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="array" ref="H8">'Import z CSV - miesiące'!H7:N18</f>
+        <v>3660</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="array" ref="B9">'Import z CSV - miesiące'!B8:H19</f>
+        <v>2229</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="array" ref="C9">'Import z CSV - miesiące'!C8:I19</f>
+        <v>2839</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="array" ref="D9">'Import z CSV - miesiące'!D8:J19</f>
+        <v>1664</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="array" ref="E9">'Import z CSV - miesiące'!E8:K19</f>
+        <v>11135</v>
+      </c>
+      <c r="F9">
+        <f t="array" ref="F9">'Import z CSV - miesiące'!F8:L19</f>
+        <v>17867</v>
+      </c>
+      <c r="G9">
+        <f t="array" ref="G9">'Import z CSV - miesiące'!G8:M19</f>
+        <v>13598</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="array" ref="H9">'Import z CSV - miesiące'!H8:N19</f>
+        <v>3660</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="array" ref="B10">'Import z CSV - miesiące'!B9:H20</f>
+        <v>2133</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="array" ref="C10">'Import z CSV - miesiące'!C9:I20</f>
+        <v>2712</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="array" ref="D10">'Import z CSV - miesiące'!D9:J20</f>
+        <v>1975</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="array" ref="E10">'Import z CSV - miesiące'!E9:K20</f>
+        <v>9416</v>
+      </c>
+      <c r="F10">
+        <f t="array" ref="F10">'Import z CSV - miesiące'!F9:L20</f>
+        <v>16236</v>
+      </c>
+      <c r="G10">
+        <f t="array" ref="G10">'Import z CSV - miesiące'!G9:M20</f>
+        <v>13598</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="array" ref="H10">'Import z CSV - miesiące'!H9:N20</f>
+        <v>3660</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="array" ref="B11">'Import z CSV - miesiące'!B10:H21</f>
+        <v>1950</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="array" ref="C11">'Import z CSV - miesiące'!C10:I21</f>
+        <v>3701</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="array" ref="D11">'Import z CSV - miesiące'!D10:J21</f>
+        <v>2654</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="array" ref="E11">'Import z CSV - miesiące'!E10:K21</f>
+        <v>9534</v>
+      </c>
+      <c r="F11">
+        <f t="array" ref="F11">'Import z CSV - miesiące'!F10:L21</f>
+        <v>17839</v>
+      </c>
+      <c r="G11">
+        <f t="array" ref="G11">'Import z CSV - miesiące'!G10:M21</f>
+        <v>13598</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="array" ref="H11">'Import z CSV - miesiące'!H10:N21</f>
+        <v>3660</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="array" ref="B12">'Import z CSV - miesiące'!B11:H22</f>
+        <v>1436</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="array" ref="C12">'Import z CSV - miesiące'!C11:I22</f>
+        <v>3099</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="array" ref="D12">'Import z CSV - miesiące'!D11:J22</f>
+        <v>3141</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="array" ref="E12">'Import z CSV - miesiące'!E11:K22</f>
+        <v>8784</v>
+      </c>
+      <c r="F12">
+        <f t="array" ref="F12">'Import z CSV - miesiące'!F11:L22</f>
+        <v>16460</v>
+      </c>
+      <c r="G12">
+        <f t="array" ref="G12">'Import z CSV - miesiące'!G11:M22</f>
+        <v>13598</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="array" ref="H12">'Import z CSV - miesiące'!H11:N22</f>
+        <v>3660</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="array" ref="B13">'Import z CSV - miesiące'!B12:H23</f>
+        <v>1164</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="array" ref="C13">'Import z CSV - miesiące'!C12:I23</f>
+        <v>3257</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="array" ref="D13">'Import z CSV - miesiące'!D12:J23</f>
+        <v>3164</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="array" ref="E13">'Import z CSV - miesiące'!E12:K23</f>
+        <v>11422</v>
+      </c>
+      <c r="F13">
+        <f t="array" ref="F13">'Import z CSV - miesiące'!F12:L23</f>
+        <v>19007</v>
+      </c>
+      <c r="G13">
+        <f t="array" ref="G13">'Import z CSV - miesiące'!G12:M23</f>
+        <v>13598</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="array" ref="H13">'Import z CSV - miesiące'!H12:N23</f>
+        <v>3660</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="array" ref="B14">'Import z CSV - miesiące'!B13:H24</f>
+        <v>1356</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="array" ref="C14">'Import z CSV - miesiące'!C13:I24</f>
+        <v>399</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="array" ref="D14">'Import z CSV - miesiące'!D13:J24</f>
+        <v>4173</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="array" ref="E14">'Import z CSV - miesiące'!E13:K24</f>
+        <v>7600</v>
+      </c>
+      <c r="F14">
+        <f t="array" ref="F14">'Import z CSV - miesiące'!F13:L24</f>
+        <v>13528</v>
+      </c>
+      <c r="G14">
+        <f t="array" ref="G14">'Import z CSV - miesiące'!G13:M24</f>
+        <v>13598</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="array" ref="H14">'Import z CSV - miesiące'!H13:N24</f>
+        <v>3660</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>9938</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>17258</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C31EC3B-B5CE-9C4E-9B3E-53CC0055FE5D}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2325</v>
+      </c>
+      <c r="C2">
+        <v>5883</v>
+      </c>
+      <c r="D2">
+        <v>3750</v>
+      </c>
+      <c r="E2">
+        <v>16765</v>
+      </c>
+      <c r="F2">
+        <v>28723</v>
+      </c>
+      <c r="G2">
+        <v>40793</v>
+      </c>
+      <c r="H2">
+        <v>9877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3866</v>
+      </c>
+      <c r="C3">
+        <v>3599</v>
+      </c>
+      <c r="D3">
+        <v>3847</v>
+      </c>
+      <c r="E3">
+        <v>22201</v>
+      </c>
+      <c r="F3">
+        <v>33513</v>
+      </c>
+      <c r="G3">
+        <v>40793</v>
+      </c>
+      <c r="H3">
+        <v>9877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6312</v>
+      </c>
+      <c r="C4">
+        <v>9252</v>
+      </c>
+      <c r="D4">
+        <v>6293</v>
+      </c>
+      <c r="E4">
+        <v>30085</v>
+      </c>
+      <c r="F4">
+        <v>51942</v>
+      </c>
+      <c r="G4">
+        <v>40793</v>
+      </c>
+      <c r="H4">
+        <v>9877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3956</v>
+      </c>
+      <c r="C5">
+        <v>6755</v>
+      </c>
+      <c r="D5">
+        <v>10478</v>
+      </c>
+      <c r="E5">
+        <v>27806</v>
+      </c>
+      <c r="F5">
+        <v>48995</v>
+      </c>
+      <c r="G5">
+        <v>40793</v>
+      </c>
+      <c r="H5">
+        <v>9877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57685411-FF8C-F241-BA20-A1851B0699EB}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <f t="array" ref="A3">'Import z CSV - kwartały'!A2:H5</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="array" ref="B3">'Import z CSV - kwartały'!B2:I5</f>
+        <v>2325</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="array" ref="C3">'Import z CSV - kwartały'!C2:J5</f>
+        <v>5883</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="array" ref="D3">'Import z CSV - kwartały'!D2:K5</f>
+        <v>3750</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="array" ref="E3">'Import z CSV - kwartały'!E2:L5</f>
+        <v>16765</v>
+      </c>
+      <c r="F3">
+        <f t="array" ref="F3">'Import z CSV - kwartały'!F2:M5</f>
+        <v>28723</v>
+      </c>
+      <c r="G3">
+        <f t="array" ref="G3">'Import z CSV - kwartały'!G2:N5</f>
+        <v>40793</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="array" ref="H3">'Import z CSV - kwartały'!H2:O5</f>
+        <v>9877</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I6" si="0">G3-H3</f>
+        <v>30916</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J6" si="1">G3+H3</f>
+        <v>50670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <f t="array" ref="A4">'Import z CSV - kwartały'!A3:H6</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="array" ref="B4">'Import z CSV - kwartały'!B3:I6</f>
+        <v>3866</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="array" ref="C4">'Import z CSV - kwartały'!C3:J6</f>
+        <v>3599</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="array" ref="D4">'Import z CSV - kwartały'!D3:K6</f>
+        <v>3847</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="array" ref="E4">'Import z CSV - kwartały'!E3:L6</f>
+        <v>22201</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">'Import z CSV - kwartały'!F3:M6</f>
+        <v>33513</v>
+      </c>
+      <c r="G4">
+        <f t="array" ref="G4">'Import z CSV - kwartały'!G3:N6</f>
+        <v>40793</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="array" ref="H4">'Import z CSV - kwartały'!H3:O6</f>
+        <v>9877</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>30916</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>50670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <f t="array" ref="A5">'Import z CSV - kwartały'!A4:H7</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="array" ref="B5">'Import z CSV - kwartały'!B4:I7</f>
+        <v>6312</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="array" ref="C5">'Import z CSV - kwartały'!C4:J7</f>
+        <v>9252</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="array" ref="D5">'Import z CSV - kwartały'!D4:K7</f>
+        <v>6293</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="array" ref="E5">'Import z CSV - kwartały'!E4:L7</f>
+        <v>30085</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">'Import z CSV - kwartały'!F4:M7</f>
+        <v>51942</v>
+      </c>
+      <c r="G5">
+        <f t="array" ref="G5">'Import z CSV - kwartały'!G4:N7</f>
+        <v>40793</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="array" ref="H5">'Import z CSV - kwartały'!H4:O7</f>
+        <v>9877</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>30916</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>50670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <f t="array" ref="A6">'Import z CSV - kwartały'!A5:H8</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="array" ref="B6">'Import z CSV - kwartały'!B5:I8</f>
+        <v>3956</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="array" ref="C6">'Import z CSV - kwartały'!C5:J8</f>
+        <v>6755</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="array" ref="D6">'Import z CSV - kwartały'!D5:K8</f>
+        <v>10478</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="array" ref="E6">'Import z CSV - kwartały'!E5:L8</f>
+        <v>27806</v>
+      </c>
+      <c r="F6">
+        <f t="array" ref="F6">'Import z CSV - kwartały'!F5:M8</f>
+        <v>48995</v>
+      </c>
+      <c r="G6">
+        <f t="array" ref="G6">'Import z CSV - kwartały'!G5:N8</f>
+        <v>40793</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="array" ref="H6">'Import z CSV - kwartały'!H5:O8</f>
+        <v>9877</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>30916</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>50670</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>